--- a/Departments/GSWS.xlsx
+++ b/Departments/GSWS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current Project\Course Requisites\DEPTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{494FAF6C-66D1-45F1-95F3-26E1BABC8AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBACBBC-051C-4E2F-AEE1-F79E1461DCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF76DE1C-563F-40DC-AD88-798194E8B0E3}"/>
+    <workbookView xWindow="1480" yWindow="1480" windowWidth="14400" windowHeight="7360" xr2:uid="{DF76DE1C-563F-40DC-AD88-798194E8B0E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>Course_Name</t>
   </si>
   <si>
-    <t>PREREQ_COURSES</t>
-  </si>
-  <si>
-    <t>COREQ_COURSES</t>
-  </si>
-  <si>
     <t>Acad_Group</t>
   </si>
   <si>
@@ -526,6 +520,12 @@
   </si>
   <si>
     <t>WS 202W - Modernizing Women: Canadian Women in Historical Perspective, 1870s-1970s</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>CoRequisites</t>
   </si>
 </sst>
 </file>
@@ -880,7 +880,7 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I66"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -899,1754 +899,1754 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
         <v>37</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
         <v>40</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" t="s">
-        <v>42</v>
-      </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
         <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
         <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
         <v>63</v>
       </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" t="s">
-        <v>65</v>
-      </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
         <v>66</v>
       </c>
-      <c r="D23" t="s">
+      <c r="H23" t="s">
         <v>67</v>
-      </c>
-      <c r="E23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
         <v>66</v>
       </c>
-      <c r="D24" t="s">
+      <c r="H24" t="s">
         <v>67</v>
       </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="I24" t="s">
         <v>68</v>
-      </c>
-      <c r="H24" t="s">
-        <v>69</v>
-      </c>
-      <c r="I24" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
         <v>89</v>
-      </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
         <v>102</v>
-      </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" t="s">
         <v>109</v>
-      </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s">
-        <v>110</v>
-      </c>
-      <c r="E43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" t="s">
-        <v>15</v>
-      </c>
-      <c r="I43" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" t="s">
         <v>116</v>
-      </c>
-      <c r="B46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s">
-        <v>117</v>
-      </c>
-      <c r="E46" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" t="s">
-        <v>15</v>
-      </c>
-      <c r="I46" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" t="s">
         <v>119</v>
-      </c>
-      <c r="B47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s">
-        <v>120</v>
-      </c>
-      <c r="E47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" t="s">
-        <v>15</v>
-      </c>
-      <c r="I47" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H52" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>142</v>
+      </c>
+      <c r="E59" t="s">
+        <v>63</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" t="s">
         <v>143</v>
-      </c>
-      <c r="B59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s">
-        <v>144</v>
-      </c>
-      <c r="E59" t="s">
-        <v>65</v>
-      </c>
-      <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" t="s">
-        <v>15</v>
-      </c>
-      <c r="I59" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" t="s">
+        <v>147</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" t="s">
+        <v>146</v>
+      </c>
+      <c r="H61" t="s">
         <v>148</v>
-      </c>
-      <c r="D61" t="s">
-        <v>149</v>
-      </c>
-      <c r="E61" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s">
-        <v>148</v>
-      </c>
-      <c r="H61" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>150</v>
+      </c>
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" t="s">
         <v>151</v>
-      </c>
-      <c r="B62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s">
-        <v>152</v>
-      </c>
-      <c r="E62" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" t="s">
-        <v>15</v>
-      </c>
-      <c r="I62" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>155</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" t="s">
         <v>156</v>
-      </c>
-      <c r="B64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s">
-        <v>157</v>
-      </c>
-      <c r="E64" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" t="s">
-        <v>15</v>
-      </c>
-      <c r="I64" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G65" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Departments/GSWS.xlsx
+++ b/Departments/GSWS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpattani\Documents\Course_Requisites\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBACBBC-051C-4E2F-AEE1-F79E1461DCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03598842-68EA-43A1-A027-6A592054F2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1480" windowWidth="14400" windowHeight="7360" xr2:uid="{DF76DE1C-563F-40DC-AD88-798194E8B0E3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DF76DE1C-563F-40DC-AD88-798194E8B0E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFEBCD4-738D-4929-9B7D-268CE3008AC0}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -916,16 +916,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -934,18 +934,15 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -954,7 +951,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -967,14 +964,11 @@
       </c>
       <c r="H3" t="s">
         <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -983,7 +977,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -1000,7 +994,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1009,7 +1003,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -1022,14 +1016,11 @@
       </c>
       <c r="H5" t="s">
         <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1038,7 +1029,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -1055,7 +1046,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1064,7 +1055,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1081,7 +1072,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1090,7 +1081,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -1107,7 +1098,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1116,7 +1107,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -1129,14 +1120,11 @@
       </c>
       <c r="H9" t="s">
         <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1145,10 +1133,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1162,7 +1150,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -1171,10 +1159,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1188,7 +1176,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1197,10 +1185,10 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -1214,7 +1202,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1223,10 +1211,10 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -1240,7 +1228,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1249,10 +1237,10 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -1266,7 +1254,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1275,7 +1263,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -1292,7 +1280,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -1301,7 +1289,7 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -1316,12 +1304,12 @@
         <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -1330,7 +1318,7 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -1343,14 +1331,11 @@
       </c>
       <c r="H17" t="s">
         <v>13</v>
-      </c>
-      <c r="I17" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -1359,7 +1344,7 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -1376,7 +1361,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -1385,7 +1370,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -1398,11 +1383,14 @@
       </c>
       <c r="H19" t="s">
         <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -1411,7 +1399,7 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -1428,7 +1416,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -1437,7 +1425,7 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -1454,7 +1442,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1463,10 +1451,10 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -1476,20 +1464,23 @@
       </c>
       <c r="H22" t="s">
         <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -1498,24 +1489,24 @@
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -1524,18 +1515,18 @@
         <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="I24" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -1544,7 +1535,7 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -1557,11 +1548,14 @@
       </c>
       <c r="H25" t="s">
         <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -1570,7 +1564,7 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -1587,7 +1581,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -1596,7 +1590,7 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -1609,11 +1603,14 @@
       </c>
       <c r="H27" t="s">
         <v>13</v>
+      </c>
+      <c r="I27" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -1622,7 +1619,7 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -1635,11 +1632,14 @@
       </c>
       <c r="H28" t="s">
         <v>13</v>
+      </c>
+      <c r="I28" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -1648,7 +1648,7 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -1674,7 +1674,7 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -1700,7 +1700,7 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>154</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -1726,7 +1726,7 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
@@ -1739,11 +1739,14 @@
       </c>
       <c r="H32" t="s">
         <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -1752,7 +1755,7 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
@@ -1769,7 +1772,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -1778,7 +1781,7 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
@@ -1793,12 +1796,12 @@
         <v>13</v>
       </c>
       <c r="I34" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -1807,7 +1810,7 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -1820,11 +1823,14 @@
       </c>
       <c r="H35" t="s">
         <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -1833,7 +1839,7 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
@@ -1850,7 +1856,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -1859,7 +1865,7 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -1872,11 +1878,14 @@
       </c>
       <c r="H37" t="s">
         <v>13</v>
+      </c>
+      <c r="I37" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -1885,10 +1894,10 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
         <v>11</v>
@@ -1902,7 +1911,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -1911,10 +1920,10 @@
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
@@ -1928,7 +1937,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -1937,10 +1946,10 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
         <v>11</v>
@@ -1950,14 +1959,11 @@
       </c>
       <c r="H40" t="s">
         <v>13</v>
-      </c>
-      <c r="I40" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -1966,10 +1972,10 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F41" t="s">
         <v>11</v>
@@ -1983,7 +1989,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -1992,10 +1998,10 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
         <v>11</v>
@@ -2009,7 +2015,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -2018,7 +2024,7 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
@@ -2031,14 +2037,11 @@
       </c>
       <c r="H43" t="s">
         <v>13</v>
-      </c>
-      <c r="I43" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
@@ -2047,7 +2050,7 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
@@ -2064,7 +2067,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
@@ -2073,7 +2076,7 @@
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
@@ -2090,7 +2093,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -2099,7 +2102,7 @@
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
@@ -2114,12 +2117,12 @@
         <v>13</v>
       </c>
       <c r="I46" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -2128,7 +2131,7 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
@@ -2143,12 +2146,12 @@
         <v>13</v>
       </c>
       <c r="I47" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -2157,7 +2160,7 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
@@ -2174,7 +2177,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -2183,7 +2186,7 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
@@ -2200,7 +2203,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
@@ -2209,7 +2212,7 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
@@ -2226,7 +2229,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
@@ -2235,7 +2238,7 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
@@ -2252,7 +2255,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -2261,7 +2264,7 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
@@ -2278,7 +2281,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
@@ -2287,7 +2290,7 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
@@ -2304,7 +2307,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
@@ -2313,7 +2316,7 @@
         <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
@@ -2330,7 +2333,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -2339,7 +2342,7 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
@@ -2356,7 +2359,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -2365,7 +2368,7 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
@@ -2382,7 +2385,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
@@ -2391,7 +2394,7 @@
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -2463,7 +2466,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
@@ -2472,7 +2475,7 @@
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
@@ -2489,16 +2492,16 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
@@ -2507,15 +2510,15 @@
         <v>11</v>
       </c>
       <c r="G61" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="H61" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
@@ -2524,7 +2527,7 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
@@ -2537,14 +2540,11 @@
       </c>
       <c r="H62" t="s">
         <v>13</v>
-      </c>
-      <c r="I62" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
@@ -2553,10 +2553,10 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F63" t="s">
         <v>11</v>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -2579,7 +2579,7 @@
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
@@ -2593,22 +2593,19 @@
       <c r="H64" t="s">
         <v>13</v>
       </c>
-      <c r="I64" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D65" t="s">
-        <v>158</v>
+        <v>65</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
@@ -2617,24 +2614,24 @@
         <v>11</v>
       </c>
       <c r="G65" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="H65" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
@@ -2643,10 +2640,13 @@
         <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="H66" t="s">
-        <v>13</v>
+        <v>67</v>
+      </c>
+      <c r="I66" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
